--- a/Doc/ExcelConfig/Datas/dota/CombinationConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/CombinationConfig.xlsx
@@ -4119,8 +4119,8 @@
   <sheetPr/>
   <dimension ref="A1:U612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="K339" sqref="K339"/>
+    <sheetView tabSelected="1" topLeftCell="J37" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>

--- a/Doc/ExcelConfig/Datas/dota/CombinationConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/CombinationConfig.xlsx
@@ -4119,8 +4119,8 @@
   <sheetPr/>
   <dimension ref="A1:U612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J37" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -4129,7 +4129,7 @@
     <col min="3" max="3" width="14.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="14.6083333333333" customWidth="1"/>
     <col min="5" max="5" width="16.175" customWidth="1"/>
-    <col min="6" max="6" width="10.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="12.1666666666667" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
     <col min="9" max="9" width="22.3333333333333" customWidth="1"/>
